--- a/Excel reader/B1.xlsx
+++ b/Excel reader/B1.xlsx
@@ -446,7 +446,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>181B032</t>
+          <t>181b032</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -464,7 +464,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>181B021</t>
+          <t>181b021</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -482,7 +482,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>181B002</t>
+          <t>181b002</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -536,7 +536,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>181B027</t>
+          <t>181b027</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -554,7 +554,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>181B023</t>
+          <t>181b023</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -572,7 +572,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>181B024</t>
+          <t>181b024</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -590,7 +590,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>181B013</t>
+          <t>181b013</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -608,7 +608,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>181B008</t>
+          <t>181b008</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -644,7 +644,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>181B005</t>
+          <t>181b005</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -662,7 +662,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>181B015</t>
+          <t>181b015</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -682,7 +682,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>181B026</t>
+          <t>181b026</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -700,7 +700,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>181B012</t>
+          <t>181b012</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -718,7 +718,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>181B009</t>
+          <t>181b009</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -772,7 +772,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>181B030</t>
+          <t>181b030</t>
         </is>
       </c>
       <c r="B20" t="n">
@@ -790,7 +790,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>181B006</t>
+          <t>181b006</t>
         </is>
       </c>
       <c r="B21" t="n">
@@ -808,7 +808,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>171B002</t>
+          <t>171b002</t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -826,7 +826,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t xml:space="preserve">181B020 </t>
+          <t xml:space="preserve">181b020 </t>
         </is>
       </c>
       <c r="B23" t="n">
@@ -844,7 +844,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>181B004</t>
+          <t>181b004</t>
         </is>
       </c>
       <c r="B24" t="n">
@@ -862,7 +862,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>181B014</t>
+          <t>181b014</t>
         </is>
       </c>
       <c r="B25" t="n">
